--- a/biology/Zoologie/102_Dalmatiens/102_Dalmatiens.xlsx
+++ b/biology/Zoologie/102_Dalmatiens/102_Dalmatiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">102 Dalmatiens (102 Dalmatians) est un film américain réalisé par Kevin Lima et sorti en 2001. Il fait suite à l'adaptation en images réelles Les 101 Dalmatiens sortie en 1996.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cruella d'Enfer sort de prison. Son incarcération et la thérapie du Dr Pavlov semblent l'avoir métamorphosée : elle s'est décidée à aider un chenil tenu par Kevin Shepherd au bord de la faillite. 
 Mais son juge d'application des peines, Chloé Simon, ne croit pas à une telle reconversion. En effet, elle-même est propriétaire d'un des chiots dalmatiens (maintenant adultes) que Cruella voulait tuer pour son manteau. C'est la raison pour laquelle Chloé fait surveiller Cruella... À juste titre car, traitement du Dr Pavlov oblige, la folie de Cruella pour la fourrure revient à la suite des sons de cloches de Big Ben le même jour, et se confirme avec l'apparition d'un couturier français, Jean-Pierre Le Pelt. Ils recherchent maintenant 102 chiots dalmatiens pour ajouter une capuche au manteau de ses rêves.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : 102 Dalmatians
 Titre français : 102 Dalmatiens
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Glenn Close (VF : Élisabeth Wiener ; VQ : Anne Caron) : Cruella d'Enfer
 Gérard Depardieu (VF : lui-même ; VQ : Marc Bellier) : Jean-Pierre Le Pelt
@@ -608,7 +626,7 @@
 Nicholas Hutchison : le journaliste
 Tim Willcox : le journaliste d'ITN
 Eric Idle (VF : Éric Métayer ; VQ : Jacques Lavallée) : Ventraterre, le perroquet (voix)
-Source et légende : Version française (VF) sur Voxofilm[1] Version québécoise (VQ) sur Doublage Québec[2]</t>
+Source et légende : Version française (VF) sur Voxofilm Version québécoise (VQ) sur Doublage Québec</t>
         </is>
       </c>
     </row>
@@ -636,7 +654,9 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">102 Dalmatiens a fait l'objet de deux adaptations en jeu vidéo Les 102 Dalmatiens à la rescousse ! sur Windows, PlayStation, Dreamcast et Game Boy Color et Les 102 Dalmatiens : Les Chiots disparus, destiné à un public plus jeune, sur Windows.
 </t>
